--- a/learn.automation.hybrid/src/test/java/applicationTestCases/STC_OCP_Test.xlsx
+++ b/learn.automation.hybrid/src/test/java/applicationTestCases/STC_OCP_Test.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitya.ranjan.behera\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B887A95A-30D8-44F7-8ADC-AE6209A1D93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0B52F7D7-244C-40E4-87B4-0E2800421BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" xr2:uid="{3930E068-0600-4978-AD4A-04120330C8F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="7875" xr2:uid="{3930E068-0600-4978-AD4A-04120330C8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>WebServicesName</t>
   </si>
@@ -39,6 +35,15 @@
   </si>
   <si>
     <t>Get Mobile Finger Print Details</t>
+  </si>
+  <si>
+    <t>FormDate</t>
+  </si>
+  <si>
+    <t>June 12, 2018</t>
+  </si>
+  <si>
+    <t>May 12, 2011</t>
   </si>
 </sst>
 </file>
@@ -87,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,30 +410,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD004198-59CD-4B39-B2C2-092987044E87}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
